--- a/Higgins/29803/BOP+NOC+Pavement+Rehab+draft+ITP+2023-24+-SH+30-+Regional+Boundary-+01-01.xlsx
+++ b/Higgins/29803/BOP+NOC+Pavement+Rehab+draft+ITP+2023-24+-SH+30-+Regional+Boundary-+01-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMathew\Documents\Renewals\ITP &amp; RQP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Higgins\29803\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE34EC68-129B-4E9A-B7CE-8FD6FBE8154C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1227DF-3371-457B-8059-985278D96E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="150" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="330" windowWidth="29415" windowHeight="19875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITP -1 " sheetId="1" r:id="rId1"/>
@@ -2899,6 +2899,249 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2917,15 +3160,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2934,240 +3168,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3566,14 +3566,14 @@
   </sheetPr>
   <dimension ref="A1:W123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S19" sqref="S19"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -3583,228 +3583,228 @@
     <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
     <col min="9" max="13" width="6.7109375" customWidth="1"/>
     <col min="14" max="14" width="8.140625" customWidth="1"/>
-    <col min="15" max="15" width="28" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="28" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" customWidth="1"/>
-    <col min="19" max="19" width="28" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="28" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="28" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="145"/>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="147"/>
+      <c r="A1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="112"/>
     </row>
     <row r="2" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="150"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="115"/>
     </row>
     <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="156"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="121"/>
       <c r="R3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="163"/>
-      <c r="T3" s="164"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="129"/>
     </row>
     <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="153"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="118"/>
       <c r="R4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="180">
+      <c r="S4" s="130">
         <v>1</v>
       </c>
-      <c r="T4" s="181"/>
+      <c r="T4" s="131"/>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
-      <c r="S5" s="161"/>
-      <c r="T5" s="162"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="127"/>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="159"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="157" t="s">
+      <c r="F6" s="122" t="s">
         <v>442</v>
       </c>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="159"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="124"/>
       <c r="R6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="165">
+      <c r="S6" s="132">
         <v>45336</v>
       </c>
-      <c r="T6" s="166"/>
+      <c r="T6" s="133"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="94"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="175"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="97"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="178"/>
     </row>
     <row r="9" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="181" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -3816,20 +3816,20 @@
       <c r="D9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
       <c r="H9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="102" t="s">
+      <c r="I9" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="3" t="s">
         <v>22</v>
       </c>
@@ -3856,70 +3856,70 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
-      <c r="B10" s="98" t="s">
+      <c r="A10" s="181"/>
+      <c r="B10" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="172" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="100" t="s">
+      <c r="I10" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="99" t="s">
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="99" t="s">
+      <c r="N10" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="100" t="s">
+      <c r="O10" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="100" t="s">
+      <c r="P10" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="100" t="s">
+      <c r="Q10" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="100" t="s">
+      <c r="R10" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="100" t="s">
+      <c r="S10" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="101" t="s">
+      <c r="T10" s="179" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
+      <c r="A11" s="181"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
       <c r="E11" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="98"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="172"/>
       <c r="I11" s="2" t="s">
         <v>40</v>
       </c>
@@ -3932,67 +3932,67 @@
       <c r="L11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="101"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="166"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="166"/>
+      <c r="T11" s="179"/>
     </row>
     <row r="12" spans="1:20" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="109"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="101"/>
     </row>
     <row r="13" spans="1:20" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="106"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="109"/>
     </row>
     <row r="14" spans="1:20" s="10" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="7" t="s">
         <v>47</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:20" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="7" t="s">
         <v>56</v>
       </c>
@@ -4074,31 +4074,31 @@
       <c r="T15" s="19"/>
     </row>
     <row r="16" spans="1:20" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="104" t="s">
+      <c r="A16" s="105"/>
+      <c r="B16" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="105"/>
-      <c r="T16" s="106"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="109"/>
     </row>
     <row r="17" spans="1:23" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="28" t="s">
         <v>60</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="31" t="s">
         <v>64</v>
       </c>
@@ -4178,7 +4178,7 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="10" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="31" t="s">
         <v>72</v>
       </c>
@@ -4220,31 +4220,31 @@
       <c r="T19" s="35"/>
     </row>
     <row r="20" spans="1:23" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
-      <c r="B20" s="104" t="s">
+      <c r="A20" s="105"/>
+      <c r="B20" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="105"/>
-      <c r="T20" s="106"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="109"/>
     </row>
     <row r="21" spans="1:23" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="117"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="28" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4272,8 @@
       <c r="T21" s="19"/>
     </row>
     <row r="22" spans="1:23" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="117"/>
-      <c r="B22" s="110" t="s">
+      <c r="A22" s="105"/>
+      <c r="B22" s="167" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -4316,8 +4316,8 @@
       <c r="T22" s="19"/>
     </row>
     <row r="23" spans="1:23" s="10" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="154"/>
       <c r="C23" s="29" t="s">
         <v>82</v>
       </c>
@@ -4358,8 +4358,8 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:23" s="10" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="117"/>
-      <c r="B24" s="112"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="29" t="s">
         <v>85</v>
       </c>
@@ -4400,8 +4400,8 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:23" s="10" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="117"/>
-      <c r="B25" s="110" t="s">
+      <c r="A25" s="105"/>
+      <c r="B25" s="167" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="29" t="s">
@@ -4444,8 +4444,8 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:23" s="10" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
-      <c r="B26" s="111"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="154"/>
       <c r="C26" s="29" t="s">
         <v>92</v>
       </c>
@@ -4486,8 +4486,8 @@
       <c r="T26" s="19"/>
     </row>
     <row r="27" spans="1:23" s="10" customFormat="1" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="117"/>
-      <c r="B27" s="112"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="155"/>
       <c r="C27" s="29" t="s">
         <v>95</v>
       </c>
@@ -4528,31 +4528,31 @@
       <c r="T27" s="19"/>
     </row>
     <row r="28" spans="1:23" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A28" s="117"/>
-      <c r="B28" s="104" t="s">
+      <c r="A28" s="105"/>
+      <c r="B28" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="106"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="109"/>
     </row>
     <row r="29" spans="1:23" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="117"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="53" t="s">
         <v>99</v>
       </c>
@@ -4598,8 +4598,8 @@
       <c r="T29" s="19"/>
     </row>
     <row r="30" spans="1:23" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="117"/>
-      <c r="B30" s="113" t="s">
+      <c r="A30" s="105"/>
+      <c r="B30" s="168" t="s">
         <v>104</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -4636,8 +4636,8 @@
       <c r="T30" s="79"/>
     </row>
     <row r="31" spans="1:23" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="117"/>
-      <c r="B31" s="114"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="169"/>
       <c r="C31" s="6" t="s">
         <v>107</v>
       </c>
@@ -4672,8 +4672,8 @@
       <c r="T31" s="79"/>
     </row>
     <row r="32" spans="1:23" s="10" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="117"/>
-      <c r="B32" s="114"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="169"/>
       <c r="C32" s="6" t="s">
         <v>111</v>
       </c>
@@ -4708,8 +4708,8 @@
       <c r="T32" s="79"/>
     </row>
     <row r="33" spans="1:20" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="117"/>
-      <c r="B33" s="114"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="169"/>
       <c r="C33" s="6" t="s">
         <v>115</v>
       </c>
@@ -4744,8 +4744,8 @@
       <c r="T33" s="79"/>
     </row>
     <row r="34" spans="1:20" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="117"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="6" t="s">
         <v>118</v>
       </c>
@@ -4788,7 +4788,7 @@
       <c r="T34" s="79"/>
     </row>
     <row r="35" spans="1:20" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A35" s="117"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="53" t="s">
         <v>122</v>
       </c>
@@ -4832,31 +4832,31 @@
       <c r="T35" s="19"/>
     </row>
     <row r="36" spans="1:20" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A36" s="117"/>
-      <c r="B36" s="104" t="s">
+      <c r="A36" s="105"/>
+      <c r="B36" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="105"/>
-      <c r="T36" s="106"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="108"/>
+      <c r="S36" s="108"/>
+      <c r="T36" s="109"/>
     </row>
     <row r="37" spans="1:20" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="117"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="53" t="s">
         <v>99</v>
       </c>
@@ -4900,31 +4900,31 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:20" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="117"/>
-      <c r="B38" s="104" t="s">
+      <c r="A38" s="105"/>
+      <c r="B38" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
-      <c r="O38" s="105"/>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="105"/>
-      <c r="R38" s="105"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="106"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="108"/>
+      <c r="O38" s="108"/>
+      <c r="P38" s="108"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="109"/>
     </row>
     <row r="39" spans="1:20" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="56" t="s">
         <v>134</v>
       </c>
@@ -4968,31 +4968,31 @@
       <c r="T39" s="19"/>
     </row>
     <row r="40" spans="1:20" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="117"/>
-      <c r="B40" s="104" t="s">
+      <c r="A40" s="105"/>
+      <c r="B40" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="105"/>
-      <c r="S40" s="105"/>
-      <c r="T40" s="106"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="109"/>
     </row>
     <row r="41" spans="1:20" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A41" s="118"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="53" t="s">
         <v>141</v>
       </c>
@@ -5036,31 +5036,31 @@
       <c r="T41" s="19"/>
     </row>
     <row r="42" spans="1:20" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A42" s="107" t="s">
+      <c r="A42" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="108"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="108"/>
-      <c r="R42" s="108"/>
-      <c r="S42" s="108"/>
-      <c r="T42" s="109"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="101"/>
     </row>
     <row r="43" spans="1:20" s="10" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="167"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="57" t="s">
         <v>146</v>
       </c>
@@ -5104,7 +5104,7 @@
       <c r="T43" s="19"/>
     </row>
     <row r="44" spans="1:20" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="167"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="28" t="s">
         <v>150</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="T44" s="19"/>
     </row>
     <row r="45" spans="1:20" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="168"/>
+      <c r="A45" s="103"/>
       <c r="B45" s="28" t="s">
         <v>156</v>
       </c>
@@ -5188,31 +5188,31 @@
       <c r="T45" s="19"/>
     </row>
     <row r="46" spans="1:20" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="107" t="s">
+      <c r="A46" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="108"/>
-      <c r="T46" s="109"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="100"/>
+      <c r="T46" s="101"/>
     </row>
     <row r="47" spans="1:20" s="10" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="116" t="s">
+      <c r="A47" s="104" t="s">
         <v>163</v>
       </c>
       <c r="B47" s="28" t="s">
@@ -5260,7 +5260,7 @@
       <c r="T47" s="19"/>
     </row>
     <row r="48" spans="1:20" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="117"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="53" t="s">
         <v>170</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="T48" s="19"/>
     </row>
     <row r="49" spans="1:20" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="117"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="57" t="s">
         <v>175</v>
       </c>
@@ -5352,7 +5352,7 @@
       <c r="T49" s="19"/>
     </row>
     <row r="50" spans="1:20" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="117"/>
+      <c r="A50" s="105"/>
       <c r="B50" s="56" t="s">
         <v>180</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="T50" s="19"/>
     </row>
     <row r="51" spans="1:20" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="117"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="56" t="s">
         <v>184</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="T51" s="19"/>
     </row>
     <row r="52" spans="1:20" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="117"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="56" t="s">
         <v>186</v>
       </c>
@@ -5486,31 +5486,31 @@
       <c r="T52" s="19"/>
     </row>
     <row r="53" spans="1:20" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="99" t="s">
         <v>434</v>
       </c>
-      <c r="B53" s="108"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="108"/>
-      <c r="N53" s="108"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="108"/>
-      <c r="R53" s="108"/>
-      <c r="S53" s="108"/>
-      <c r="T53" s="109"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="100"/>
+      <c r="R53" s="100"/>
+      <c r="S53" s="100"/>
+      <c r="T53" s="101"/>
     </row>
     <row r="54" spans="1:20" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="116" t="s">
+      <c r="A54" s="104" t="s">
         <v>425</v>
       </c>
       <c r="B54" s="28" t="s">
@@ -5558,7 +5558,7 @@
       <c r="T54" s="19"/>
     </row>
     <row r="55" spans="1:20" s="10" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="117"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="28" t="s">
         <v>429</v>
       </c>
@@ -5604,7 +5604,7 @@
       <c r="T55" s="19"/>
     </row>
     <row r="56" spans="1:20" s="10" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
+      <c r="A56" s="105"/>
       <c r="B56" s="57" t="s">
         <v>430</v>
       </c>
@@ -5650,31 +5650,31 @@
       <c r="T56" s="19"/>
     </row>
     <row r="57" spans="1:20" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="107" t="s">
+      <c r="A57" s="99" t="s">
         <v>435</v>
       </c>
-      <c r="B57" s="108"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="108"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="108"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="108"/>
-      <c r="N57" s="108"/>
-      <c r="O57" s="108"/>
-      <c r="P57" s="108"/>
-      <c r="Q57" s="108"/>
-      <c r="R57" s="108"/>
-      <c r="S57" s="108"/>
-      <c r="T57" s="109"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="100"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="100"/>
+      <c r="N57" s="100"/>
+      <c r="O57" s="100"/>
+      <c r="P57" s="100"/>
+      <c r="Q57" s="100"/>
+      <c r="R57" s="100"/>
+      <c r="S57" s="100"/>
+      <c r="T57" s="101"/>
     </row>
     <row r="58" spans="1:20" s="10" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="122" t="s">
+      <c r="A58" s="158" t="s">
         <v>410</v>
       </c>
       <c r="B58" s="56" t="s">
@@ -5684,7 +5684,7 @@
       <c r="D58" s="56" t="s">
         <v>398</v>
       </c>
-      <c r="E58" s="174" t="s">
+      <c r="E58" s="97" t="s">
         <v>399</v>
       </c>
       <c r="F58" s="56" t="s">
@@ -5713,17 +5713,17 @@
       <c r="Q58" s="53"/>
       <c r="R58" s="53"/>
       <c r="S58" s="53"/>
-      <c r="T58" s="170"/>
+      <c r="T58" s="93"/>
     </row>
     <row r="59" spans="1:20" s="10" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="123"/>
-      <c r="B59" s="175" t="s">
+      <c r="A59" s="159"/>
+      <c r="B59" s="156" t="s">
         <v>408</v>
       </c>
       <c r="C59" s="56" t="s">
         <v>406</v>
       </c>
-      <c r="D59" s="174" t="s">
+      <c r="D59" s="97" t="s">
         <v>401</v>
       </c>
       <c r="E59" s="56" t="s">
@@ -5755,15 +5755,15 @@
       <c r="Q59" s="53"/>
       <c r="R59" s="53"/>
       <c r="S59" s="53"/>
-      <c r="T59" s="170"/>
+      <c r="T59" s="93"/>
     </row>
     <row r="60" spans="1:20" s="10" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="123"/>
-      <c r="B60" s="176"/>
+      <c r="A60" s="159"/>
+      <c r="B60" s="157"/>
       <c r="C60" s="56" t="s">
         <v>407</v>
       </c>
-      <c r="D60" s="174" t="s">
+      <c r="D60" s="97" t="s">
         <v>402</v>
       </c>
       <c r="E60" s="56" t="s">
@@ -5795,10 +5795,10 @@
       <c r="Q60" s="53"/>
       <c r="R60" s="53"/>
       <c r="S60" s="53"/>
-      <c r="T60" s="170"/>
+      <c r="T60" s="93"/>
     </row>
     <row r="61" spans="1:20" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="123"/>
+      <c r="A61" s="159"/>
       <c r="B61" s="82" t="s">
         <v>191</v>
       </c>
@@ -5840,14 +5840,14 @@
       <c r="T61" s="88"/>
     </row>
     <row r="62" spans="1:20" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="123"/>
+      <c r="A62" s="159"/>
       <c r="B62" s="53" t="s">
         <v>253</v>
       </c>
       <c r="C62" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="D62" s="169" t="s">
+      <c r="D62" s="92" t="s">
         <v>254</v>
       </c>
       <c r="E62" s="53" t="s">
@@ -5881,59 +5881,59 @@
       <c r="Q62" s="53"/>
       <c r="R62" s="53"/>
       <c r="S62" s="53"/>
-      <c r="T62" s="170"/>
+      <c r="T62" s="93"/>
     </row>
     <row r="63" spans="1:20" s="10" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="124"/>
-      <c r="B63" s="171" t="s">
+      <c r="A63" s="160"/>
+      <c r="B63" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C63" s="171" t="s">
+      <c r="C63" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="D63" s="172" t="s">
+      <c r="D63" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="E63" s="171" t="s">
+      <c r="E63" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="F63" s="171" t="s">
+      <c r="F63" s="94" t="s">
         <v>409</v>
       </c>
-      <c r="G63" s="171" t="s">
+      <c r="G63" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="H63" s="171" t="s">
+      <c r="H63" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="I63" s="171" t="s">
+      <c r="I63" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="J63" s="171" t="s">
-        <v>53</v>
-      </c>
-      <c r="K63" s="171" t="s">
+      <c r="J63" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="K63" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="L63" s="171" t="s">
+      <c r="L63" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="M63" s="171" t="s">
+      <c r="M63" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="N63" s="171"/>
-      <c r="O63" s="171"/>
-      <c r="P63" s="171"/>
-      <c r="Q63" s="171"/>
-      <c r="R63" s="171"/>
-      <c r="S63" s="171"/>
-      <c r="T63" s="173"/>
+      <c r="N63" s="94"/>
+      <c r="O63" s="94"/>
+      <c r="P63" s="94"/>
+      <c r="Q63" s="94"/>
+      <c r="R63" s="94"/>
+      <c r="S63" s="94"/>
+      <c r="T63" s="96"/>
     </row>
     <row r="64" spans="1:20" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="126" t="s">
+      <c r="A64" s="164" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="153" t="s">
         <v>197</v>
       </c>
       <c r="C64" s="89" t="s">
@@ -5976,8 +5976,8 @@
       <c r="T64" s="91"/>
     </row>
     <row r="65" spans="1:20" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="127"/>
-      <c r="B65" s="111"/>
+      <c r="A65" s="165"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="28" t="s">
         <v>202</v>
       </c>
@@ -6018,8 +6018,8 @@
       <c r="T65" s="19"/>
     </row>
     <row r="66" spans="1:20" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="127"/>
-      <c r="B66" s="112"/>
+      <c r="A66" s="165"/>
+      <c r="B66" s="155"/>
       <c r="C66" s="28" t="s">
         <v>202</v>
       </c>
@@ -6060,7 +6060,7 @@
       <c r="T66" s="19"/>
     </row>
     <row r="67" spans="1:20" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="127"/>
+      <c r="A67" s="165"/>
       <c r="B67" s="28" t="s">
         <v>208</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="T67" s="19"/>
     </row>
     <row r="68" spans="1:20" s="10" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="127"/>
+      <c r="A68" s="165"/>
       <c r="B68" s="53" t="s">
         <v>212</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="T68" s="19"/>
     </row>
     <row r="69" spans="1:20" s="10" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="127"/>
+      <c r="A69" s="165"/>
       <c r="B69" s="53" t="s">
         <v>217</v>
       </c>
@@ -6186,7 +6186,7 @@
       <c r="T69" s="19"/>
     </row>
     <row r="70" spans="1:20" s="10" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="127"/>
+      <c r="A70" s="165"/>
       <c r="B70" s="53" t="s">
         <v>221</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="T70" s="19"/>
     </row>
     <row r="71" spans="1:20" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="127"/>
+      <c r="A71" s="165"/>
       <c r="B71" s="53" t="s">
         <v>226</v>
       </c>
@@ -6272,7 +6272,7 @@
       <c r="T71" s="19"/>
     </row>
     <row r="72" spans="1:20" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="127"/>
+      <c r="A72" s="165"/>
       <c r="B72" s="53" t="s">
         <v>229</v>
       </c>
@@ -6314,7 +6314,7 @@
       <c r="T72" s="19"/>
     </row>
     <row r="73" spans="1:20" s="10" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="127"/>
+      <c r="A73" s="165"/>
       <c r="B73" s="57" t="s">
         <v>231</v>
       </c>
@@ -6356,7 +6356,7 @@
       <c r="T73" s="19"/>
     </row>
     <row r="74" spans="1:20" s="10" customFormat="1" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="127"/>
+      <c r="A74" s="165"/>
       <c r="B74" s="57" t="s">
         <v>236</v>
       </c>
@@ -6400,7 +6400,7 @@
       <c r="T74" s="19"/>
     </row>
     <row r="75" spans="1:20" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="127"/>
+      <c r="A75" s="165"/>
       <c r="B75" s="57" t="s">
         <v>240</v>
       </c>
@@ -6444,7 +6444,7 @@
       <c r="T75" s="19"/>
     </row>
     <row r="76" spans="1:20" s="10" customFormat="1" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="127"/>
+      <c r="A76" s="165"/>
       <c r="B76" s="56" t="s">
         <v>415</v>
       </c>
@@ -6484,23 +6484,23 @@
       <c r="T76" s="19"/>
     </row>
     <row r="77" spans="1:20" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="127"/>
-      <c r="B77" s="175" t="s">
+      <c r="A77" s="165"/>
+      <c r="B77" s="156" t="s">
         <v>422</v>
       </c>
-      <c r="C77" s="177" t="s">
+      <c r="C77" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="177" t="s">
+      <c r="D77" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="E77" s="177" t="s">
+      <c r="E77" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="178" t="s">
+      <c r="F77" s="161" t="s">
         <v>423</v>
       </c>
-      <c r="G77" s="177" t="s">
+      <c r="G77" s="98" t="s">
         <v>81</v>
       </c>
       <c r="H77" s="53" t="s">
@@ -6526,19 +6526,19 @@
       <c r="T77" s="79"/>
     </row>
     <row r="78" spans="1:20" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="127"/>
-      <c r="B78" s="176"/>
-      <c r="C78" s="177" t="s">
+      <c r="A78" s="165"/>
+      <c r="B78" s="157"/>
+      <c r="C78" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="D78" s="177" t="s">
+      <c r="D78" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="E78" s="177" t="s">
+      <c r="E78" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="F78" s="179"/>
-      <c r="G78" s="177" t="s">
+      <c r="F78" s="162"/>
+      <c r="G78" s="98" t="s">
         <v>81</v>
       </c>
       <c r="H78" s="53" t="s">
@@ -6564,7 +6564,7 @@
       <c r="T78" s="79"/>
     </row>
     <row r="79" spans="1:20" s="10" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="123"/>
+      <c r="A79" s="159"/>
       <c r="B79" s="57" t="s">
         <v>243</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="T79" s="19"/>
     </row>
     <row r="80" spans="1:20" s="10" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="123"/>
+      <c r="A80" s="159"/>
       <c r="B80" s="28" t="s">
         <v>249</v>
       </c>
@@ -6656,7 +6656,7 @@
       <c r="T80" s="19"/>
     </row>
     <row r="81" spans="1:20" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="123"/>
+      <c r="A81" s="159"/>
       <c r="B81" s="28" t="s">
         <v>253</v>
       </c>
@@ -6702,7 +6702,7 @@
       <c r="T81" s="19"/>
     </row>
     <row r="82" spans="1:20" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="123"/>
+      <c r="A82" s="159"/>
       <c r="B82" s="28" t="s">
         <v>257</v>
       </c>
@@ -6748,7 +6748,7 @@
       <c r="T82" s="19"/>
     </row>
     <row r="83" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="123"/>
+      <c r="A83" s="159"/>
       <c r="B83" s="28" t="s">
         <v>262</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="T83" s="19"/>
     </row>
     <row r="84" spans="1:20" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="125"/>
+      <c r="A84" s="163"/>
       <c r="B84" s="70" t="s">
         <v>277</v>
       </c>
@@ -6840,54 +6840,54 @@
       <c r="T84" s="19"/>
     </row>
     <row r="85" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="130" t="s">
+      <c r="A85" s="139" t="s">
         <v>437</v>
       </c>
-      <c r="B85" s="131"/>
-      <c r="C85" s="131"/>
-      <c r="D85" s="131"/>
-      <c r="E85" s="131"/>
-      <c r="F85" s="131"/>
-      <c r="G85" s="131"/>
-      <c r="H85" s="131"/>
-      <c r="I85" s="131"/>
-      <c r="J85" s="131"/>
-      <c r="K85" s="131"/>
-      <c r="L85" s="131"/>
-      <c r="M85" s="131"/>
-      <c r="N85" s="131"/>
-      <c r="O85" s="131"/>
-      <c r="P85" s="131"/>
-      <c r="Q85" s="131"/>
-      <c r="R85" s="131"/>
-      <c r="S85" s="131"/>
-      <c r="T85" s="132"/>
+      <c r="B85" s="140"/>
+      <c r="C85" s="140"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="140"/>
+      <c r="F85" s="140"/>
+      <c r="G85" s="140"/>
+      <c r="H85" s="140"/>
+      <c r="I85" s="140"/>
+      <c r="J85" s="140"/>
+      <c r="K85" s="140"/>
+      <c r="L85" s="140"/>
+      <c r="M85" s="140"/>
+      <c r="N85" s="140"/>
+      <c r="O85" s="140"/>
+      <c r="P85" s="140"/>
+      <c r="Q85" s="140"/>
+      <c r="R85" s="140"/>
+      <c r="S85" s="140"/>
+      <c r="T85" s="141"/>
     </row>
     <row r="86" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="B86" s="134" t="s">
+      <c r="B86" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="C86" s="135"/>
-      <c r="D86" s="135"/>
-      <c r="E86" s="135"/>
-      <c r="F86" s="135"/>
-      <c r="G86" s="135"/>
-      <c r="H86" s="135"/>
-      <c r="I86" s="135"/>
-      <c r="J86" s="135"/>
-      <c r="K86" s="135"/>
-      <c r="L86" s="135"/>
-      <c r="M86" s="135"/>
-      <c r="N86" s="135"/>
-      <c r="O86" s="135"/>
-      <c r="P86" s="135"/>
-      <c r="Q86" s="135"/>
-      <c r="R86" s="135"/>
-      <c r="S86" s="135"/>
-      <c r="T86" s="136"/>
+      <c r="C86" s="144"/>
+      <c r="D86" s="144"/>
+      <c r="E86" s="144"/>
+      <c r="F86" s="144"/>
+      <c r="G86" s="144"/>
+      <c r="H86" s="144"/>
+      <c r="I86" s="144"/>
+      <c r="J86" s="144"/>
+      <c r="K86" s="144"/>
+      <c r="L86" s="144"/>
+      <c r="M86" s="144"/>
+      <c r="N86" s="144"/>
+      <c r="O86" s="144"/>
+      <c r="P86" s="144"/>
+      <c r="Q86" s="144"/>
+      <c r="R86" s="144"/>
+      <c r="S86" s="144"/>
+      <c r="T86" s="145"/>
     </row>
     <row r="87" spans="1:20" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="80"/>
@@ -6897,7 +6897,7 @@
       <c r="C87" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="D87" s="169" t="s">
+      <c r="D87" s="92" t="s">
         <v>271</v>
       </c>
       <c r="E87" s="53" t="s">
@@ -6933,10 +6933,10 @@
       <c r="Q87" s="53"/>
       <c r="R87" s="53"/>
       <c r="S87" s="53"/>
-      <c r="T87" s="170"/>
+      <c r="T87" s="93"/>
     </row>
     <row r="88" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="141" t="s">
+      <c r="A88" s="152" t="s">
         <v>45</v>
       </c>
       <c r="B88" s="50" t="s">
@@ -6954,10 +6954,10 @@
       <c r="F88" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="G88" s="119" t="s">
+      <c r="G88" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="H88" s="119" t="s">
+      <c r="H88" s="146" t="s">
         <v>287</v>
       </c>
       <c r="I88" s="41" t="s">
@@ -6982,7 +6982,7 @@
       <c r="T88" s="19"/>
     </row>
     <row r="89" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="141"/>
+      <c r="A89" s="152"/>
       <c r="B89" s="41" t="s">
         <v>289</v>
       </c>
@@ -6998,8 +6998,8 @@
       <c r="F89" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="G89" s="120"/>
-      <c r="H89" s="137"/>
+      <c r="G89" s="148"/>
+      <c r="H89" s="147"/>
       <c r="I89" s="41" t="s">
         <v>53</v>
       </c>
@@ -7022,11 +7022,11 @@
       <c r="T89" s="19"/>
     </row>
     <row r="90" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="141"/>
+      <c r="A90" s="152"/>
       <c r="B90" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="C90" s="119" t="s">
+      <c r="C90" s="146" t="s">
         <v>294</v>
       </c>
       <c r="D90" s="41" t="s">
@@ -7035,13 +7035,13 @@
       <c r="E90" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="F90" s="139" t="s">
+      <c r="F90" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="G90" s="119" t="s">
+      <c r="G90" s="146" t="s">
         <v>298</v>
       </c>
-      <c r="H90" s="137"/>
+      <c r="H90" s="147"/>
       <c r="I90" s="41" t="s">
         <v>53</v>
       </c>
@@ -7064,20 +7064,20 @@
       <c r="T90" s="19"/>
     </row>
     <row r="91" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="141"/>
+      <c r="A91" s="152"/>
       <c r="B91" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="C91" s="120"/>
+      <c r="C91" s="148"/>
       <c r="D91" s="41" t="s">
         <v>300</v>
       </c>
       <c r="E91" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="F91" s="140"/>
-      <c r="G91" s="137"/>
-      <c r="H91" s="137"/>
+      <c r="F91" s="151"/>
+      <c r="G91" s="147"/>
+      <c r="H91" s="147"/>
       <c r="I91" s="41" t="s">
         <v>53</v>
       </c>
@@ -7100,7 +7100,7 @@
       <c r="T91" s="19"/>
     </row>
     <row r="92" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="141"/>
+      <c r="A92" s="152"/>
       <c r="B92" s="59" t="s">
         <v>302</v>
       </c>
@@ -7116,8 +7116,8 @@
       <c r="F92" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="G92" s="137"/>
-      <c r="H92" s="137"/>
+      <c r="G92" s="147"/>
+      <c r="H92" s="147"/>
       <c r="I92" s="41" t="s">
         <v>53</v>
       </c>
@@ -7140,13 +7140,13 @@
       <c r="T92" s="19"/>
     </row>
     <row r="93" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="116" t="s">
+      <c r="A93" s="104" t="s">
         <v>307</v>
       </c>
       <c r="B93" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="C93" s="119" t="s">
+      <c r="C93" s="146" t="s">
         <v>309</v>
       </c>
       <c r="D93" s="43" t="s">
@@ -7155,11 +7155,11 @@
       <c r="E93" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="F93" s="119" t="s">
+      <c r="F93" s="146" t="s">
         <v>312</v>
       </c>
-      <c r="G93" s="137"/>
-      <c r="H93" s="137"/>
+      <c r="G93" s="147"/>
+      <c r="H93" s="147"/>
       <c r="I93" s="41" t="s">
         <v>53</v>
       </c>
@@ -7182,20 +7182,20 @@
       <c r="T93" s="19"/>
     </row>
     <row r="94" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="117"/>
+      <c r="A94" s="105"/>
       <c r="B94" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="137"/>
+      <c r="C94" s="147"/>
       <c r="D94" s="64" t="s">
         <v>314</v>
       </c>
       <c r="E94" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="F94" s="137"/>
-      <c r="G94" s="137"/>
-      <c r="H94" s="137"/>
+      <c r="F94" s="147"/>
+      <c r="G94" s="147"/>
+      <c r="H94" s="147"/>
       <c r="I94" s="41" t="s">
         <v>53</v>
       </c>
@@ -7218,20 +7218,20 @@
       <c r="T94" s="19"/>
     </row>
     <row r="95" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="117"/>
+      <c r="A95" s="105"/>
       <c r="B95" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="120"/>
+      <c r="C95" s="148"/>
       <c r="D95" s="65" t="s">
         <v>317</v>
       </c>
       <c r="E95" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="F95" s="120"/>
-      <c r="G95" s="137"/>
-      <c r="H95" s="120"/>
+      <c r="F95" s="148"/>
+      <c r="G95" s="147"/>
+      <c r="H95" s="148"/>
       <c r="I95" s="41" t="s">
         <v>53</v>
       </c>
@@ -7254,7 +7254,7 @@
       <c r="T95" s="19"/>
     </row>
     <row r="96" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="118"/>
+      <c r="A96" s="106"/>
       <c r="B96" s="41" t="s">
         <v>319</v>
       </c>
@@ -7270,7 +7270,7 @@
       <c r="F96" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="G96" s="120"/>
+      <c r="G96" s="148"/>
       <c r="H96" s="48" t="s">
         <v>323</v>
       </c>
@@ -7299,30 +7299,30 @@
       <c r="A97" s="73" t="s">
         <v>439</v>
       </c>
-      <c r="B97" s="134" t="s">
+      <c r="B97" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="C97" s="135"/>
-      <c r="D97" s="135"/>
-      <c r="E97" s="135"/>
-      <c r="F97" s="135"/>
-      <c r="G97" s="135"/>
-      <c r="H97" s="135"/>
-      <c r="I97" s="135"/>
-      <c r="J97" s="135"/>
-      <c r="K97" s="135"/>
-      <c r="L97" s="135"/>
-      <c r="M97" s="135"/>
-      <c r="N97" s="135"/>
-      <c r="O97" s="135"/>
-      <c r="P97" s="135"/>
-      <c r="Q97" s="135"/>
-      <c r="R97" s="135"/>
-      <c r="S97" s="135"/>
-      <c r="T97" s="136"/>
+      <c r="C97" s="144"/>
+      <c r="D97" s="144"/>
+      <c r="E97" s="144"/>
+      <c r="F97" s="144"/>
+      <c r="G97" s="144"/>
+      <c r="H97" s="144"/>
+      <c r="I97" s="144"/>
+      <c r="J97" s="144"/>
+      <c r="K97" s="144"/>
+      <c r="L97" s="144"/>
+      <c r="M97" s="144"/>
+      <c r="N97" s="144"/>
+      <c r="O97" s="144"/>
+      <c r="P97" s="144"/>
+      <c r="Q97" s="144"/>
+      <c r="R97" s="144"/>
+      <c r="S97" s="144"/>
+      <c r="T97" s="145"/>
     </row>
     <row r="98" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="138"/>
+      <c r="A98" s="149"/>
       <c r="B98" s="45" t="s">
         <v>324</v>
       </c>
@@ -7366,7 +7366,7 @@
       <c r="T98" s="19"/>
     </row>
     <row r="99" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="138"/>
+      <c r="A99" s="149"/>
       <c r="B99" s="45" t="s">
         <v>330</v>
       </c>
@@ -7410,7 +7410,7 @@
       <c r="T99" s="19"/>
     </row>
     <row r="100" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="138"/>
+      <c r="A100" s="149"/>
       <c r="B100" s="45" t="s">
         <v>333</v>
       </c>
@@ -7454,7 +7454,7 @@
       <c r="T100" s="19"/>
     </row>
     <row r="101" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="138"/>
+      <c r="A101" s="149"/>
       <c r="B101" s="45" t="s">
         <v>335</v>
       </c>
@@ -7498,7 +7498,7 @@
       <c r="T101" s="19"/>
     </row>
     <row r="102" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="138"/>
+      <c r="A102" s="149"/>
       <c r="B102" s="45" t="s">
         <v>337</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="T102" s="19"/>
     </row>
     <row r="103" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="138"/>
+      <c r="A103" s="149"/>
       <c r="B103" s="45" t="s">
         <v>343</v>
       </c>
@@ -7558,7 +7558,7 @@
       <c r="F103" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="G103" s="119" t="s">
+      <c r="G103" s="146" t="s">
         <v>328</v>
       </c>
       <c r="H103" s="48" t="s">
@@ -7586,7 +7586,7 @@
       <c r="T103" s="19"/>
     </row>
     <row r="104" spans="1:20" s="10" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="138"/>
+      <c r="A104" s="149"/>
       <c r="B104" s="49" t="s">
         <v>349</v>
       </c>
@@ -7602,7 +7602,7 @@
       <c r="F104" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="G104" s="137"/>
+      <c r="G104" s="147"/>
       <c r="H104" s="48" t="s">
         <v>352</v>
       </c>
@@ -7628,7 +7628,7 @@
       <c r="T104" s="19"/>
     </row>
     <row r="105" spans="1:20" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="138"/>
+      <c r="A105" s="149"/>
       <c r="B105" s="49" t="s">
         <v>353</v>
       </c>
@@ -7644,7 +7644,7 @@
       <c r="F105" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="G105" s="137"/>
+      <c r="G105" s="147"/>
       <c r="H105" s="48" t="s">
         <v>329</v>
       </c>
@@ -7670,7 +7670,7 @@
       <c r="T105" s="19"/>
     </row>
     <row r="106" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="138"/>
+      <c r="A106" s="149"/>
       <c r="B106" s="48" t="s">
         <v>355</v>
       </c>
@@ -7686,7 +7686,7 @@
       <c r="F106" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="G106" s="137"/>
+      <c r="G106" s="147"/>
       <c r="H106" s="48" t="s">
         <v>329</v>
       </c>
@@ -7712,7 +7712,7 @@
       <c r="T106" s="19"/>
     </row>
     <row r="107" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="138"/>
+      <c r="A107" s="149"/>
       <c r="B107" s="49" t="s">
         <v>357</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="F107" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="G107" s="137"/>
+      <c r="G107" s="147"/>
       <c r="H107" s="48" t="s">
         <v>358</v>
       </c>
@@ -7754,7 +7754,7 @@
       <c r="T107" s="19"/>
     </row>
     <row r="108" spans="1:20" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="138"/>
+      <c r="A108" s="149"/>
       <c r="B108" s="49" t="s">
         <v>359</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="F108" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="G108" s="120"/>
+      <c r="G108" s="148"/>
       <c r="H108" s="48" t="s">
         <v>358</v>
       </c>
@@ -7799,27 +7799,27 @@
       <c r="A109" s="72" t="s">
         <v>440</v>
       </c>
-      <c r="B109" s="134" t="s">
+      <c r="B109" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="C109" s="135"/>
-      <c r="D109" s="135"/>
-      <c r="E109" s="135"/>
-      <c r="F109" s="135"/>
-      <c r="G109" s="135"/>
-      <c r="H109" s="135"/>
-      <c r="I109" s="135"/>
-      <c r="J109" s="135"/>
-      <c r="K109" s="135"/>
-      <c r="L109" s="135"/>
-      <c r="M109" s="135"/>
-      <c r="N109" s="135"/>
-      <c r="O109" s="135"/>
-      <c r="P109" s="135"/>
-      <c r="Q109" s="135"/>
-      <c r="R109" s="135"/>
-      <c r="S109" s="135"/>
-      <c r="T109" s="136"/>
+      <c r="C109" s="144"/>
+      <c r="D109" s="144"/>
+      <c r="E109" s="144"/>
+      <c r="F109" s="144"/>
+      <c r="G109" s="144"/>
+      <c r="H109" s="144"/>
+      <c r="I109" s="144"/>
+      <c r="J109" s="144"/>
+      <c r="K109" s="144"/>
+      <c r="L109" s="144"/>
+      <c r="M109" s="144"/>
+      <c r="N109" s="144"/>
+      <c r="O109" s="144"/>
+      <c r="P109" s="144"/>
+      <c r="Q109" s="144"/>
+      <c r="R109" s="144"/>
+      <c r="S109" s="144"/>
+      <c r="T109" s="145"/>
     </row>
     <row r="110" spans="1:20" s="15" customFormat="1" ht="108" x14ac:dyDescent="0.25">
       <c r="A110" s="80"/>
@@ -7868,7 +7868,7 @@
       <c r="T110" s="85"/>
     </row>
     <row r="111" spans="1:20" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A111" s="117" t="s">
+      <c r="A111" s="105" t="s">
         <v>248</v>
       </c>
       <c r="B111" s="57" t="s">
@@ -7914,7 +7914,7 @@
       <c r="T111" s="69"/>
     </row>
     <row r="112" spans="1:20" s="15" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="117"/>
+      <c r="A112" s="105"/>
       <c r="B112" s="45" t="s">
         <v>368</v>
       </c>
@@ -7958,7 +7958,7 @@
       <c r="T112" s="19"/>
     </row>
     <row r="113" spans="1:20" s="15" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="118"/>
+      <c r="A113" s="106"/>
       <c r="B113" s="45" t="s">
         <v>374</v>
       </c>
@@ -8002,28 +8002,28 @@
       <c r="T113" s="19"/>
     </row>
     <row r="114" spans="1:20" s="15" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="133" t="s">
+      <c r="A114" s="142" t="s">
         <v>441</v>
       </c>
-      <c r="B114" s="131"/>
-      <c r="C114" s="131"/>
-      <c r="D114" s="131"/>
-      <c r="E114" s="131"/>
-      <c r="F114" s="131"/>
-      <c r="G114" s="131"/>
-      <c r="H114" s="131"/>
-      <c r="I114" s="131"/>
-      <c r="J114" s="131"/>
-      <c r="K114" s="131"/>
-      <c r="L114" s="131"/>
-      <c r="M114" s="131"/>
-      <c r="N114" s="131"/>
-      <c r="O114" s="131"/>
-      <c r="P114" s="131"/>
-      <c r="Q114" s="131"/>
-      <c r="R114" s="131"/>
-      <c r="S114" s="131"/>
-      <c r="T114" s="132"/>
+      <c r="B114" s="140"/>
+      <c r="C114" s="140"/>
+      <c r="D114" s="140"/>
+      <c r="E114" s="140"/>
+      <c r="F114" s="140"/>
+      <c r="G114" s="140"/>
+      <c r="H114" s="140"/>
+      <c r="I114" s="140"/>
+      <c r="J114" s="140"/>
+      <c r="K114" s="140"/>
+      <c r="L114" s="140"/>
+      <c r="M114" s="140"/>
+      <c r="N114" s="140"/>
+      <c r="O114" s="140"/>
+      <c r="P114" s="140"/>
+      <c r="Q114" s="140"/>
+      <c r="R114" s="140"/>
+      <c r="S114" s="140"/>
+      <c r="T114" s="141"/>
     </row>
     <row r="115" spans="1:20" s="15" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="76" t="s">
@@ -8134,31 +8134,31 @@
       <c r="T118" s="23"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" s="128" t="s">
+      <c r="A119" s="137" t="s">
         <v>386</v>
       </c>
-      <c r="B119" s="129"/>
+      <c r="B119" s="138"/>
       <c r="C119" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="D119" s="143"/>
-      <c r="E119" s="143"/>
+      <c r="D119" s="135"/>
+      <c r="E119" s="135"/>
       <c r="F119" s="15"/>
-      <c r="G119" s="144" t="s">
+      <c r="G119" s="136" t="s">
         <v>388</v>
       </c>
-      <c r="H119" s="144"/>
+      <c r="H119" s="136"/>
       <c r="I119" s="15" t="s">
         <v>387</v>
       </c>
       <c r="J119" s="15"/>
-      <c r="K119" s="143"/>
-      <c r="L119" s="143"/>
-      <c r="M119" s="143"/>
-      <c r="N119" s="143"/>
-      <c r="O119" s="143"/>
-      <c r="P119" s="143"/>
-      <c r="Q119" s="143"/>
+      <c r="K119" s="135"/>
+      <c r="L119" s="135"/>
+      <c r="M119" s="135"/>
+      <c r="N119" s="135"/>
+      <c r="O119" s="135"/>
+      <c r="P119" s="135"/>
+      <c r="Q119" s="135"/>
       <c r="R119" s="15"/>
       <c r="S119" s="15"/>
       <c r="T119" s="23"/>
@@ -8169,8 +8169,8 @@
       <c r="C120" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="D120" s="142"/>
-      <c r="E120" s="142"/>
+      <c r="D120" s="134"/>
+      <c r="E120" s="134"/>
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
       <c r="H120" s="16"/>
@@ -8178,13 +8178,13 @@
         <v>389</v>
       </c>
       <c r="J120" s="15"/>
-      <c r="K120" s="143"/>
-      <c r="L120" s="143"/>
-      <c r="M120" s="143"/>
-      <c r="N120" s="143"/>
-      <c r="O120" s="143"/>
-      <c r="P120" s="143"/>
-      <c r="Q120" s="143"/>
+      <c r="K120" s="135"/>
+      <c r="L120" s="135"/>
+      <c r="M120" s="135"/>
+      <c r="N120" s="135"/>
+      <c r="O120" s="135"/>
+      <c r="P120" s="135"/>
+      <c r="Q120" s="135"/>
       <c r="R120" s="15"/>
       <c r="S120" s="15"/>
       <c r="T120" s="23"/>
@@ -8195,8 +8195,8 @@
       <c r="C121" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="D121" s="142"/>
-      <c r="E121" s="142"/>
+      <c r="D121" s="134"/>
+      <c r="E121" s="134"/>
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
       <c r="H121" s="16"/>
@@ -8204,13 +8204,13 @@
         <v>390</v>
       </c>
       <c r="J121" s="15"/>
-      <c r="K121" s="143"/>
-      <c r="L121" s="143"/>
-      <c r="M121" s="143"/>
-      <c r="N121" s="143"/>
-      <c r="O121" s="143"/>
-      <c r="P121" s="143"/>
-      <c r="Q121" s="143"/>
+      <c r="K121" s="135"/>
+      <c r="L121" s="135"/>
+      <c r="M121" s="135"/>
+      <c r="N121" s="135"/>
+      <c r="O121" s="135"/>
+      <c r="P121" s="135"/>
+      <c r="Q121" s="135"/>
       <c r="R121" s="15"/>
       <c r="S121" s="15"/>
       <c r="T121" s="23"/>
@@ -8221,8 +8221,8 @@
       <c r="C122" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="142"/>
-      <c r="E122" s="142"/>
+      <c r="D122" s="134"/>
+      <c r="E122" s="134"/>
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
       <c r="H122" s="16"/>
@@ -8230,13 +8230,13 @@
         <v>25</v>
       </c>
       <c r="J122" s="15"/>
-      <c r="K122" s="143"/>
-      <c r="L122" s="143"/>
-      <c r="M122" s="143"/>
-      <c r="N122" s="143"/>
-      <c r="O122" s="143"/>
-      <c r="P122" s="143"/>
-      <c r="Q122" s="143"/>
+      <c r="K122" s="135"/>
+      <c r="L122" s="135"/>
+      <c r="M122" s="135"/>
+      <c r="N122" s="135"/>
+      <c r="O122" s="135"/>
+      <c r="P122" s="135"/>
+      <c r="Q122" s="135"/>
       <c r="R122" s="15"/>
       <c r="S122" s="15"/>
       <c r="T122" s="23"/>
@@ -8266,30 +8266,48 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="82">
-    <mergeCell ref="A42:T42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:T46"/>
-    <mergeCell ref="A13:A41"/>
-    <mergeCell ref="B28:T28"/>
-    <mergeCell ref="B20:T20"/>
-    <mergeCell ref="A1:T2"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="K119:Q119"/>
-    <mergeCell ref="K120:Q120"/>
-    <mergeCell ref="K121:Q121"/>
-    <mergeCell ref="K122:Q122"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B7:T7"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="B38:T38"/>
+    <mergeCell ref="B36:T36"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="B40:T40"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="A57:T57"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A53:T53"/>
+    <mergeCell ref="A54:A56"/>
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="A85:T85"/>
     <mergeCell ref="A114:T114"/>
@@ -8306,48 +8324,30 @@
     <mergeCell ref="F93:F95"/>
     <mergeCell ref="C93:C95"/>
     <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="A57:T57"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A53:T53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="B38:T38"/>
-    <mergeCell ref="B36:T36"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="B40:T40"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B7:T7"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="A1:T2"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="A42:T42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:T46"/>
+    <mergeCell ref="A13:A41"/>
+    <mergeCell ref="B28:T28"/>
+    <mergeCell ref="B20:T20"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
@@ -8364,15 +8364,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="40c820ad-f68f-4a7f-a9df-db05475741b1">
@@ -8388,6 +8379,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8651,14 +8651,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF8CFEC0-1D30-4E2B-8D74-9A8F30F75C51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2C1590-C9B5-42A2-9D6D-DDC27A51238E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8666,6 +8658,14 @@
     <ds:schemaRef ds:uri="40c820ad-f68f-4a7f-a9df-db05475741b1"/>
     <ds:schemaRef ds:uri="6205ab87-9b15-417b-be9d-0a3a2b455905"/>
     <ds:schemaRef ds:uri="4c6c08a7-f408-44b4-a8e1-d0e40bf9a842"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF8CFEC0-1D30-4E2B-8D74-9A8F30F75C51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
